--- a/src/test/java/ApachePOI/resource/YeniExcelMerhaba.xlsx
+++ b/src/test/java/ApachePOI/resource/YeniExcelMerhaba.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Merhaba Dunya</t>
   </si>
   <si>
     <t>Merhaba Dunya 2</t>
+  </si>
+  <si>
+    <t>Merhaba Dünya</t>
   </si>
 </sst>
 </file>
@@ -62,7 +65,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,7 +73,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J1" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="2">
